--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H2">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N2">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O2">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P2">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q2">
-        <v>0.057237478565</v>
+        <v>0.09437568442866669</v>
       </c>
       <c r="R2">
-        <v>0.5151373070849999</v>
+        <v>0.8493811598580001</v>
       </c>
       <c r="S2">
-        <v>8.487053234385038E-06</v>
+        <v>1.411968171936631E-05</v>
       </c>
       <c r="T2">
-        <v>8.487053234385042E-06</v>
+        <v>1.411968171936631E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H3">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I3">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J3">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.350895</v>
       </c>
       <c r="O3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P3">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q3">
-        <v>0.4091747996549999</v>
+        <v>0.08634987910999999</v>
       </c>
       <c r="R3">
-        <v>3.682573196894999</v>
+        <v>0.7771489119899999</v>
       </c>
       <c r="S3">
-        <v>6.067158082264516E-05</v>
+        <v>1.291892945645875E-05</v>
       </c>
       <c r="T3">
-        <v>6.067158082264518E-05</v>
+        <v>1.291892945645875E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.738254</v>
+      </c>
+      <c r="H4">
+        <v>2.214762</v>
+      </c>
+      <c r="I4">
+        <v>0.005691320045803731</v>
+      </c>
+      <c r="J4">
+        <v>0.005691320045803731</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>3.498267</v>
-      </c>
-      <c r="H4">
-        <v>10.494801</v>
-      </c>
-      <c r="I4">
-        <v>0.02652289550929144</v>
-      </c>
-      <c r="J4">
-        <v>0.02652289550929144</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N4">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P4">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q4">
-        <v>2.348785439538</v>
+        <v>0.03042074040866667</v>
       </c>
       <c r="R4">
-        <v>21.139068955842</v>
+        <v>0.273786663678</v>
       </c>
       <c r="S4">
-        <v>0.0003482729770996066</v>
+        <v>4.551290672360606E-06</v>
       </c>
       <c r="T4">
-        <v>0.0003482729770996067</v>
+        <v>4.551290672360606E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H5">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I5">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J5">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N5">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O5">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P5">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q5">
-        <v>176.057683277527</v>
+        <v>37.82952878355199</v>
       </c>
       <c r="R5">
-        <v>1584.519149497743</v>
+        <v>340.465759051968</v>
       </c>
       <c r="S5">
-        <v>0.0261054638981348</v>
+        <v>0.005659730143955545</v>
       </c>
       <c r="T5">
-        <v>0.02610546389813481</v>
+        <v>0.005659730143955545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>367.374267</v>
       </c>
       <c r="I6">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J6">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N6">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O6">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P6">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q6">
-        <v>2.003618432855</v>
+        <v>15.654593084767</v>
       </c>
       <c r="R6">
-        <v>18.032565895695</v>
+        <v>140.891337762903</v>
       </c>
       <c r="S6">
-        <v>0.0002970923375271415</v>
+        <v>0.002342106159454379</v>
       </c>
       <c r="T6">
-        <v>0.0002970923375271417</v>
+        <v>0.002342106159454379</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>367.374267</v>
       </c>
       <c r="I7">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J7">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>0.350895</v>
       </c>
       <c r="O7">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P7">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q7">
         <v>14.323310379885</v>
@@ -883,10 +883,10 @@
         <v>128.909793418965</v>
       </c>
       <c r="S7">
-        <v>0.002123830412072656</v>
+        <v>0.002142931041570717</v>
       </c>
       <c r="T7">
-        <v>0.002123830412072657</v>
+        <v>0.002142931041570717</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>367.374267</v>
       </c>
       <c r="I8">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J8">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N8">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O8">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P8">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q8">
-        <v>82.22007536784599</v>
+        <v>5.046048834697001</v>
       </c>
       <c r="R8">
-        <v>739.9806783106141</v>
+        <v>45.41443951227301</v>
       </c>
       <c r="S8">
-        <v>0.01219142027351217</v>
+        <v>0.0007549466148788969</v>
       </c>
       <c r="T8">
-        <v>0.01219142027351217</v>
+        <v>0.0007549466148788968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>367.374267</v>
       </c>
       <c r="I9">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J9">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N9">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O9">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P9">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q9">
-        <v>6162.962246144508</v>
+        <v>6274.983681232033</v>
       </c>
       <c r="R9">
-        <v>55466.66021530057</v>
+        <v>56474.85313108829</v>
       </c>
       <c r="S9">
-        <v>0.9138311116401574</v>
+        <v>0.9388093226511351</v>
       </c>
       <c r="T9">
-        <v>0.9138311116401577</v>
+        <v>0.9388093226511351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H10">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I10">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J10">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N10">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O10">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P10">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q10">
-        <v>0.08942582902944445</v>
+        <v>0.7284711269010001</v>
       </c>
       <c r="R10">
-        <v>0.8048324612650001</v>
+        <v>6.556240142109</v>
       </c>
       <c r="S10">
-        <v>1.325987430840473E-05</v>
+        <v>0.000108987611754643</v>
       </c>
       <c r="T10">
-        <v>1.325987430840474E-05</v>
+        <v>0.000108987611754643</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H11">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I11">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J11">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.350895</v>
       </c>
       <c r="O11">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P11">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q11">
-        <v>0.6392803560616667</v>
+        <v>0.6665211926549999</v>
       </c>
       <c r="R11">
-        <v>5.753523204555</v>
+        <v>5.998690733894999</v>
       </c>
       <c r="S11">
-        <v>9.479114995309521E-05</v>
+        <v>9.971919310015003E-05</v>
       </c>
       <c r="T11">
-        <v>9.479114995309524E-05</v>
+        <v>9.971919310015002E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H12">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I12">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J12">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N12">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O12">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P12">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q12">
-        <v>3.669659992175334</v>
+        <v>0.234812930691</v>
       </c>
       <c r="R12">
-        <v>33.02693992957801</v>
+        <v>2.113316376219</v>
       </c>
       <c r="S12">
-        <v>0.0005441294845005556</v>
+        <v>3.513069987274668E-05</v>
       </c>
       <c r="T12">
-        <v>0.0005441294845005557</v>
+        <v>3.513069987274668E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H13">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I13">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J13">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N13">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O13">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P13">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q13">
-        <v>275.0663495111319</v>
+        <v>292.000207785696</v>
       </c>
       <c r="R13">
-        <v>2475.597145600187</v>
+        <v>2628.001870071264</v>
       </c>
       <c r="S13">
-        <v>0.04078626120187721</v>
+        <v>0.04368657054920926</v>
       </c>
       <c r="T13">
-        <v>0.04078626120187721</v>
+        <v>0.04368657054920925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H14">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I14">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J14">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01636166666666667</v>
+        <v>0.1278363333333334</v>
       </c>
       <c r="N14">
-        <v>0.049085</v>
+        <v>0.383509</v>
       </c>
       <c r="O14">
-        <v>0.0003199896946173118</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="P14">
-        <v>0.0003199896946173119</v>
+        <v>0.002480915078704262</v>
       </c>
       <c r="Q14">
-        <v>0.007758604163333333</v>
+        <v>0.1049493684555556</v>
       </c>
       <c r="R14">
-        <v>0.06982743746999999</v>
+        <v>0.9445443161</v>
       </c>
       <c r="S14">
-        <v>1.150429547380454E-06</v>
+        <v>1.570162577587447E-05</v>
       </c>
       <c r="T14">
-        <v>1.150429547380454E-06</v>
+        <v>1.570162577587447E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H15">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I15">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J15">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.350895</v>
       </c>
       <c r="O15">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="P15">
-        <v>0.002287517243409221</v>
+        <v>0.002269935507489869</v>
       </c>
       <c r="Q15">
-        <v>0.05546410120999998</v>
+        <v>0.09602436616666665</v>
       </c>
       <c r="R15">
-        <v>0.4991769108899999</v>
+        <v>0.8642192954999999</v>
       </c>
       <c r="S15">
-        <v>8.224100560824373E-06</v>
+        <v>1.436634336254291E-05</v>
       </c>
       <c r="T15">
-        <v>8.224100560824375E-06</v>
+        <v>1.436634336254291E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H16">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I16">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J16">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.6714140000000001</v>
+        <v>0.04120633333333334</v>
       </c>
       <c r="N16">
-        <v>2.014242</v>
+        <v>0.123619</v>
       </c>
       <c r="O16">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="P16">
-        <v>0.01313103152623741</v>
+        <v>0.0007996898146180199</v>
       </c>
       <c r="Q16">
-        <v>0.318380490316</v>
+        <v>0.03382902612222222</v>
       </c>
       <c r="R16">
-        <v>2.865424412844</v>
+        <v>0.3044612351</v>
       </c>
       <c r="S16">
-        <v>4.720879112508304E-05</v>
+        <v>5.061209194015853E-06</v>
       </c>
       <c r="T16">
-        <v>4.720879112508305E-05</v>
+        <v>5.061209194015853E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H17">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I17">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J17">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.32711433333333</v>
+        <v>51.241888</v>
       </c>
       <c r="N17">
-        <v>150.981343</v>
+        <v>153.725664</v>
       </c>
       <c r="O17">
-        <v>0.984261461535736</v>
+        <v>0.9944494595991877</v>
       </c>
       <c r="P17">
-        <v>0.9842614615357361</v>
+        <v>0.9944494595991878</v>
       </c>
       <c r="Q17">
-        <v>23.86481565418066</v>
+        <v>42.06788198506666</v>
       </c>
       <c r="R17">
-        <v>214.7833408876259</v>
+        <v>378.6109378656</v>
       </c>
       <c r="S17">
-        <v>0.003538624795566529</v>
+        <v>0.006293836254887935</v>
       </c>
       <c r="T17">
-        <v>0.00353862479556653</v>
+        <v>0.006293836254887936</v>
       </c>
     </row>
   </sheetData>
